--- a/test3.xlsx
+++ b/test3.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Fall 2015 09.16" sheetId="4" r:id="rId1"/>
     <sheet name="Fall 2015 09.09" sheetId="1" r:id="rId2"/>
-    <sheet name="f15" sheetId="7" r:id="rId3"/>
-    <sheet name="s14" sheetId="8" r:id="rId4"/>
-    <sheet name="total" sheetId="9" r:id="rId5"/>
-    <sheet name="Spring 2014 04.16" sheetId="5" r:id="rId6"/>
-    <sheet name="Spring 2014 04.09" sheetId="6" r:id="rId7"/>
-    <sheet name="Tournament Fall 2015" sheetId="2" r:id="rId8"/>
+    <sheet name="s14" sheetId="7" r:id="rId3"/>
+    <sheet name="f15" sheetId="8" r:id="rId4"/>
+    <sheet name="s14+9.9.15" sheetId="9" r:id="rId5"/>
+    <sheet name="total" sheetId="10" r:id="rId6"/>
+    <sheet name="Spring 2014 04.16" sheetId="5" r:id="rId7"/>
+    <sheet name="Spring 2014 04.09" sheetId="6" r:id="rId8"/>
+    <sheet name="Tournament Fall 2015" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="29">
   <si>
     <t>Player</t>
   </si>
@@ -186,8 +187,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -227,7 +234,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -242,6 +249,9 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -256,6 +266,9 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -588,7 +601,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:L5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -664,10 +677,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="5">
         <v>4</v>
@@ -688,7 +701,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="5">
         <v>0</v>
@@ -699,19 +712,19 @@
       <c r="M2" s="5"/>
       <c r="N2" s="6">
         <f t="shared" ref="N2:N5" si="0">IF(C2,E2/C2,)</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="6">
         <f>IF(B2,(E2+J2)/(C2+J2+L2),)</f>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="P2" s="6">
         <f t="shared" ref="P2:P5" si="1">IF(C2,((E2-F2-G2-H2)+(2*F2)+(3*G2)+(4*H2))/C2,)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="6">
         <f>IF(P2,P2+O2,)</f>
-        <v>2.2999999999999998</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
@@ -777,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
@@ -798,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="5">
         <v>0</v>
@@ -809,19 +822,19 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="O4" s="6">
         <f>IF(B4,(E4+J4)/(C4+J4+L4),)</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="P4" s="6">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" s="6">
         <f>IF(P4,P4+O4,)</f>
-        <v>2.5499999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
@@ -832,7 +845,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
@@ -859,12 +872,12 @@
         <v>0</v>
       </c>
       <c r="L5" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="6">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="O5" s="6">
         <f>IF(B5,(E5+J5)/(C5+J5+L5),)</f>
@@ -872,11 +885,11 @@
       </c>
       <c r="P5" s="6">
         <f t="shared" si="1"/>
-        <v>1.6</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="Q5" s="6">
         <f>IF(P5,P5+O5,)</f>
-        <v>2.4000000000000004</v>
+        <v>3.4666666666666668</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
@@ -885,11 +898,11 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ref="B6:L6" si="2">SUM(B2:B5)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="2"/>
@@ -917,7 +930,7 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="2"/>
@@ -925,24 +938,24 @@
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="7">
         <f>E6/C6</f>
-        <v>0.77777777777777779</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="O6" s="7">
         <f>IF(B6,(E6+J6)/(C6+J6+L6),)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P6" s="7">
         <f>((E6-F6-G6-H6)+(2*F6)+(3*G6)+(4*H6))/C6</f>
-        <v>1.5555555555555556</v>
+        <v>1.4736842105263157</v>
       </c>
       <c r="Q6" s="7">
         <f>IF(P6,P6+O6,)</f>
-        <v>2.3555555555555556</v>
+        <v>2.1403508771929824</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1">
@@ -967,7 +980,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:L5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1043,10 +1056,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5">
         <v>2</v>
@@ -1078,19 +1091,19 @@
       <c r="M2" s="5"/>
       <c r="N2" s="6">
         <f t="shared" ref="N2:N5" si="0">IF(C2,E2/C2,)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="6">
         <f>IF(B2,(E2+J2)/(C2+J2+L2),)</f>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="P2" s="6">
         <f t="shared" ref="P2:P5" si="1">IF(C2,((E2-F2-G2-H2)+(2*F2)+(3*G2)+(4*H2))/C2,)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" s="6">
         <f>IF(P2,P2+O2,)</f>
-        <v>1.4166666666666665</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
@@ -1153,10 +1166,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
@@ -1188,19 +1201,19 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="O4" s="6">
         <f>IF(B4,(E4+J4)/(C4+J4+L4),)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P4" s="6">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" s="6">
         <f>IF(P4,P4+O4,)</f>
-        <v>2.5499999999999998</v>
+        <v>2.0666666666666664</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
@@ -1208,7 +1221,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
         <v>5</v>
@@ -1238,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="6">
@@ -1247,7 +1260,7 @@
       </c>
       <c r="O5" s="6">
         <f>IF(B5,(E5+J5)/(C5+J5+L5),)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="1"/>
@@ -1255,7 +1268,7 @@
       </c>
       <c r="Q5" s="6">
         <f>IF(P5,P5+O5,)</f>
-        <v>2.4000000000000004</v>
+        <v>2.2666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
@@ -1264,12 +1277,12 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ref="B6:L6" si="2">SUM(B2:B5)</f>
+        <v>22</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
       <c r="D6" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1304,24 +1317,24 @@
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="7">
         <f>E6/C6</f>
-        <v>0.76470588235294112</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="O6" s="7">
         <f>IF(B6,(E6+J6)/(C6+J6+L6),)</f>
-        <v>0.78947368421052633</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="P6" s="7">
         <f>((E6-F6-G6-H6)+(2*F6)+(3*G6)+(4*H6))/C6</f>
-        <v>1.411764705882353</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="Q6" s="7">
         <f>IF(P6,P6+O6,)</f>
-        <v>2.2012383900928794</v>
+        <v>1.9449760765550237</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1">
@@ -1343,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:L5"/>
+      <selection activeCell="B11" sqref="B11:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1443,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="5">
         <v>1</v>
@@ -1532,7 +1545,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5">
         <v>4</v>
@@ -1544,10 +1557,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -1556,7 +1569,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="5">
         <v>0</v>
@@ -1571,15 +1584,15 @@
       </c>
       <c r="O4" s="6">
         <f>IF(B4,(E4+J4)/(C4+J4+L4),)</f>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="P4" s="6">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" s="6">
         <f>IF(P4,P4+O4,)</f>
-        <v>2.5499999999999998</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
@@ -1596,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="5">
         <v>2</v>
@@ -1608,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="5">
         <v>0</v>
@@ -1622,19 +1635,19 @@
       <c r="M5" s="5"/>
       <c r="N5" s="6">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="O5" s="6">
         <f>IF(B5,(E5+J5)/(C5+J5+L5),)</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="1"/>
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q5" s="6">
         <f>IF(P5,P5+O5,)</f>
-        <v>2.4000000000000004</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
@@ -1643,7 +1656,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ref="B6:L6" si="2">SUM(B2:B5)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="2"/>
@@ -1655,15 +1668,15 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
@@ -1671,11 +1684,11 @@
       </c>
       <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="2"/>
@@ -1688,205 +1701,331 @@
       <c r="M6" s="5"/>
       <c r="N6" s="7">
         <f>E6/C6</f>
-        <v>0.77777777777777779</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="O6" s="7">
         <f>IF(B6,(E6+J6)/(C6+J6+L6),)</f>
-        <v>0.8</v>
+        <v>0.73684210526315785</v>
       </c>
       <c r="P6" s="7">
         <f>((E6-F6-G6-H6)+(2*F6)+(3*G6)+(4*H6))/C6</f>
-        <v>1.5555555555555556</v>
+        <v>1.4444444444444444</v>
       </c>
       <c r="Q6" s="7">
         <f>IF(P6,P6+O6,)</f>
-        <v>2.3555555555555556</v>
+        <v>2.1812865497076022</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1">
-      <c r="N10" s="4"/>
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1">
-      <c r="G11" s="4"/>
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
+        <f>B2+'Spring 2014 04.16'!B2</f>
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <f>C2+'Spring 2014 04.16'!C2</f>
+        <v>8</v>
+      </c>
+      <c r="D11" s="5">
+        <f>D2+'Spring 2014 04.16'!D2</f>
+        <v>8</v>
+      </c>
+      <c r="E11" s="5">
+        <f>E2+'Spring 2014 04.16'!E2</f>
+        <v>6</v>
+      </c>
+      <c r="F11" s="5">
+        <f>F2+'Spring 2014 04.16'!F2</f>
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <f>G2+'Spring 2014 04.16'!G2</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <f>H2+'Spring 2014 04.16'!H2</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f>I2+'Spring 2014 04.16'!I2</f>
+        <v>3</v>
+      </c>
+      <c r="J11" s="5">
+        <f>J2+'Spring 2014 04.16'!J2</f>
+        <v>2</v>
+      </c>
+      <c r="K11" s="5">
+        <f>K2+'Spring 2014 04.16'!K2</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <f>L2+'Spring 2014 04.16'!L2</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6">
+        <f t="shared" ref="N11:N14" si="3">IF(C11,E11/C11,)</f>
+        <v>0.75</v>
+      </c>
+      <c r="O11" s="6">
+        <f>IF(B11,(E11+J11)/(C11+J11+L11),)</f>
+        <v>0.8</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" ref="P11:P14" si="4">IF(C11,((E11-F11-G11-H11)+(2*F11)+(3*G11)+(4*H11))/C11,)</f>
+        <v>1.25</v>
+      </c>
+      <c r="Q11" s="6">
+        <f>IF(P11,P11+O11,)</f>
+        <v>2.0499999999999998</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5">
+        <f>B3+'Spring 2014 04.16'!B3</f>
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
+        <f>C3+'Spring 2014 04.16'!C3</f>
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
+        <f>D3+'Spring 2014 04.16'!D3</f>
+        <v>8</v>
+      </c>
+      <c r="E12" s="5">
+        <f>E3+'Spring 2014 04.16'!E3</f>
+        <v>8</v>
+      </c>
+      <c r="F12" s="5">
+        <f>F3+'Spring 2014 04.16'!F3</f>
         <v>6</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R12" s="4"/>
+      <c r="G12" s="5">
+        <f>G3+'Spring 2014 04.16'!G3</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <f>H3+'Spring 2014 04.16'!H3</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <f>I3+'Spring 2014 04.16'!I3</f>
+        <v>6</v>
+      </c>
+      <c r="J12" s="5">
+        <f>J3+'Spring 2014 04.16'!J3</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <f>K3+'Spring 2014 04.16'!K3</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <f>L3+'Spring 2014 04.16'!L3</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="O12" s="6">
+        <f>IF(B12,(E12+J12)/(C12+J12+L12),)</f>
+        <v>0.8</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q12" s="6">
+        <f>IF(P12,P12+O12,)</f>
+        <v>2.2000000000000002</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B13" s="5">
-        <f>B2+'Fall 2015 09.09'!B2</f>
+        <f>B4+'Spring 2014 04.16'!B4</f>
         <v>9</v>
       </c>
       <c r="C13" s="5">
-        <f>C2+'Fall 2015 09.09'!C2</f>
-        <v>7</v>
+        <f>C4+'Spring 2014 04.16'!C4</f>
+        <v>8</v>
       </c>
       <c r="D13" s="5">
-        <f>D2+'Fall 2015 09.09'!D2</f>
+        <f>D4+'Spring 2014 04.16'!D4</f>
         <v>6</v>
       </c>
       <c r="E13" s="5">
-        <f>E2+'Fall 2015 09.09'!E2</f>
-        <v>5</v>
+        <f>E4+'Spring 2014 04.16'!E4</f>
+        <v>6</v>
       </c>
       <c r="F13" s="5">
-        <f>F2+'Fall 2015 09.09'!F2</f>
+        <f>F4+'Spring 2014 04.16'!F4</f>
         <v>1</v>
       </c>
       <c r="G13" s="5">
-        <f>G2+'Fall 2015 09.09'!G2</f>
-        <v>1</v>
+        <f>G4+'Spring 2014 04.16'!G4</f>
+        <v>3</v>
       </c>
       <c r="H13" s="5">
-        <f>H2+'Fall 2015 09.09'!H2</f>
+        <f>H4+'Spring 2014 04.16'!H4</f>
         <v>0</v>
       </c>
       <c r="I13" s="5">
-        <f>I2+'Fall 2015 09.09'!I2</f>
-        <v>3</v>
+        <f>I4+'Spring 2014 04.16'!I4</f>
+        <v>6</v>
       </c>
       <c r="J13" s="5">
-        <f>J2+'Fall 2015 09.09'!J2</f>
-        <v>2</v>
+        <f>J4+'Spring 2014 04.16'!J4</f>
+        <v>1</v>
       </c>
       <c r="K13" s="5">
-        <f>K2+'Fall 2015 09.09'!K2</f>
+        <f>K4+'Spring 2014 04.16'!K4</f>
         <v>0</v>
       </c>
       <c r="L13" s="5">
-        <f>L2+'Fall 2015 09.09'!L2</f>
+        <f>L4+'Spring 2014 04.16'!L4</f>
         <v>0</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="6">
-        <f t="shared" ref="N13:N16" si="3">IF(C13,E13/C13,)</f>
-        <v>0.7142857142857143</v>
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
       <c r="O13" s="6">
         <f>IF(B13,(E13+J13)/(C13+J13+L13),)</f>
         <v>0.77777777777777779</v>
       </c>
       <c r="P13" s="6">
-        <f>IF(C13,((E13-F13-G13-H13)+(2*F13)+(3*G13)+(4*H13))/C13,)</f>
-        <v>1.1428571428571428</v>
+        <f t="shared" si="4"/>
+        <v>1.625</v>
       </c>
       <c r="Q13" s="6">
         <f>IF(P13,P13+O13,)</f>
-        <v>1.9206349206349205</v>
+        <v>2.4027777777777777</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" s="5">
-        <f>B3+'Fall 2015 09.09'!B3</f>
+        <f>B5+'Spring 2014 04.16'!B5</f>
         <v>10</v>
       </c>
       <c r="C14" s="5">
-        <f>C3+'Fall 2015 09.09'!C3</f>
+        <f>C5+'Spring 2014 04.16'!C5</f>
         <v>10</v>
       </c>
       <c r="D14" s="5">
-        <f>D3+'Fall 2015 09.09'!D3</f>
+        <f>D5+'Spring 2014 04.16'!D5</f>
+        <v>6</v>
+      </c>
+      <c r="E14" s="5">
+        <f>E5+'Spring 2014 04.16'!E5</f>
+        <v>7</v>
+      </c>
+      <c r="F14" s="5">
+        <f>F5+'Spring 2014 04.16'!F5</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="5">
+        <f>G5+'Spring 2014 04.16'!G5</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="5">
+        <f>H5+'Spring 2014 04.16'!H5</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f>I5+'Spring 2014 04.16'!I5</f>
         <v>8</v>
       </c>
-      <c r="E14" s="5">
-        <f>E3+'Fall 2015 09.09'!E3</f>
-        <v>8</v>
-      </c>
-      <c r="F14" s="5">
-        <f>F3+'Fall 2015 09.09'!F3</f>
-        <v>6</v>
-      </c>
-      <c r="G14" s="5">
-        <f>G3+'Fall 2015 09.09'!G3</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <f>H3+'Fall 2015 09.09'!H3</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <f>I3+'Fall 2015 09.09'!I3</f>
-        <v>6</v>
-      </c>
       <c r="J14" s="5">
-        <f>J3+'Fall 2015 09.09'!J3</f>
+        <f>J5+'Spring 2014 04.16'!J5</f>
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <f>K3+'Fall 2015 09.09'!K3</f>
+        <f>K5+'Spring 2014 04.16'!K5</f>
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <f>L3+'Fall 2015 09.09'!L3</f>
+        <f>L5+'Spring 2014 04.16'!L5</f>
         <v>0</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="6">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="O14" s="6">
         <f>IF(B14,(E14+J14)/(C14+J14+L14),)</f>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" ref="P14:P16" si="4">IF(C14,((E14-F14-G14-H14)+(2*F14)+(3*G14)+(4*H14))/C14,)</f>
-        <v>1.4</v>
+        <f t="shared" si="4"/>
+        <v>1.5</v>
       </c>
       <c r="Q14" s="6">
         <f>IF(P14,P14+O14,)</f>
@@ -1894,201 +2033,69 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="5">
-        <f>B4+'Fall 2015 09.09'!B4</f>
-        <v>10</v>
-      </c>
-      <c r="C15" s="5">
-        <f>C4+'Fall 2015 09.09'!C4</f>
-        <v>8</v>
-      </c>
-      <c r="D15" s="5">
-        <f>D4+'Fall 2015 09.09'!D4</f>
-        <v>6</v>
-      </c>
-      <c r="E15" s="5">
-        <f>E4+'Fall 2015 09.09'!E4</f>
-        <v>6</v>
-      </c>
-      <c r="F15" s="5">
-        <f>F4+'Fall 2015 09.09'!F4</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <f>G4+'Fall 2015 09.09'!G4</f>
-        <v>4</v>
-      </c>
-      <c r="H15" s="5">
-        <f>H4+'Fall 2015 09.09'!H4</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <f>I4+'Fall 2015 09.09'!I4</f>
-        <v>6</v>
-      </c>
-      <c r="J15" s="5">
-        <f>J4+'Fall 2015 09.09'!J4</f>
-        <v>2</v>
-      </c>
-      <c r="K15" s="5">
-        <f>K4+'Fall 2015 09.09'!K4</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <f>L4+'Fall 2015 09.09'!L4</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="6">
-        <f t="shared" si="3"/>
-        <v>0.75</v>
-      </c>
-      <c r="O15" s="6">
-        <f>IF(B15,(E15+J15)/(C15+J15+L15),)</f>
-        <v>0.8</v>
-      </c>
-      <c r="P15" s="6">
-        <f t="shared" si="4"/>
-        <v>1.75</v>
-      </c>
-      <c r="Q15" s="6">
-        <f>IF(P15,P15+O15,)</f>
-        <v>2.5499999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="5">
-        <f>B5+'Fall 2015 09.09'!B5</f>
-        <v>10</v>
-      </c>
-      <c r="C16" s="5">
-        <f>C5+'Fall 2015 09.09'!C5</f>
-        <v>10</v>
-      </c>
-      <c r="D16" s="5">
-        <f>D5+'Fall 2015 09.09'!D5</f>
-        <v>6</v>
-      </c>
-      <c r="E16" s="5">
-        <f>E5+'Fall 2015 09.09'!E5</f>
-        <v>8</v>
-      </c>
-      <c r="F16" s="5">
-        <f>F5+'Fall 2015 09.09'!F5</f>
-        <v>4</v>
-      </c>
-      <c r="G16" s="5">
-        <f>G5+'Fall 2015 09.09'!G5</f>
-        <v>2</v>
-      </c>
-      <c r="H16" s="5">
-        <f>H5+'Fall 2015 09.09'!H5</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <f>I5+'Fall 2015 09.09'!I5</f>
-        <v>10</v>
-      </c>
-      <c r="J16" s="5">
-        <f>J5+'Fall 2015 09.09'!J5</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <f>K5+'Fall 2015 09.09'!K5</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
-        <f>L5+'Fall 2015 09.09'!L5</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="6">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="O16" s="6">
-        <f>IF(B16,(E16+J16)/(C16+J16+L16),)</f>
-        <v>0.8</v>
-      </c>
-      <c r="P16" s="6">
-        <f t="shared" si="4"/>
-        <v>1.6</v>
-      </c>
-      <c r="Q16" s="6">
-        <f>IF(P16,P16+O16,)</f>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
-        <f t="shared" ref="B17:L17" si="5">SUM(B13:B16)</f>
+      <c r="B15" s="2">
+        <f t="shared" ref="B15:L15" si="5">SUM(B11:B14)</f>
         <v>39</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C15" s="2">
         <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="D17" s="2">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2">
         <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="E17" s="2">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F15" s="2">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="G17" s="2">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="H17" s="2">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I15" s="2">
         <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="J17" s="2">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="K17" s="2">
+        <v>3</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L15" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="7">
-        <f>E17/C17</f>
-        <v>0.77142857142857146</v>
-      </c>
-      <c r="O17" s="7">
-        <f>IF(B17,(E17+J17)/(C17+J17+L17),)</f>
-        <v>0.79487179487179482</v>
-      </c>
-      <c r="P17" s="7">
-        <f>((E17-F17-G17-H17)+(2*F17)+(3*G17)+(4*H17))/C17</f>
-        <v>1.4857142857142858</v>
-      </c>
-      <c r="Q17" s="7">
-        <f>IF(P17,P17+O17,)</f>
-        <v>2.2805860805860805</v>
+      <c r="M15" s="5"/>
+      <c r="N15" s="7">
+        <f>E15/C15</f>
+        <v>0.75</v>
+      </c>
+      <c r="O15" s="7">
+        <f>IF(B15,(E15+J15)/(C15+J15+L15),)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="P15" s="7">
+        <f>((E15-F15-G15-H15)+(2*F15)+(3*G15)+(4*H15))/C15</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="Q15" s="7">
+        <f>IF(P15,P15+O15,)</f>
+        <v>2.2136752136752138</v>
       </c>
     </row>
   </sheetData>
@@ -2107,7 +2114,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD15"/>
+      <selection activeCell="B11" sqref="B11:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2189,16 +2196,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
@@ -2218,19 +2225,19 @@
       <c r="M2" s="5"/>
       <c r="N2" s="6">
         <f t="shared" ref="N2:N5" si="0">IF(C2,E2/C2,)</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="6">
         <f>IF(B2,(E2+J2)/(C2+J2+L2),)</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="P2" s="6">
         <f t="shared" ref="P2:P5" si="1">IF(C2,((E2-F2-G2-H2)+(2*F2)+(3*G2)+(4*H2))/C2,)</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" s="6">
         <f>IF(P2,P2+O2,)</f>
-        <v>2.2999999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
@@ -2293,10 +2300,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
@@ -2328,19 +2335,19 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="O4" s="6">
         <f>IF(B4,(E4+J4)/(C4+J4+L4),)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P4" s="6">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" s="6">
         <f>IF(P4,P4+O4,)</f>
-        <v>2.5499999999999998</v>
+        <v>2.0666666666666664</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
@@ -2348,7 +2355,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
         <v>5</v>
@@ -2369,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="5">
         <v>0</v>
@@ -2378,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="6">
@@ -2387,7 +2394,7 @@
       </c>
       <c r="O5" s="6">
         <f>IF(B5,(E5+J5)/(C5+J5+L5),)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="1"/>
@@ -2395,7 +2402,7 @@
       </c>
       <c r="Q5" s="6">
         <f>IF(P5,P5+O5,)</f>
-        <v>2.4000000000000004</v>
+        <v>2.2666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
@@ -2404,27 +2411,27 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ref="B6:L6" si="2">SUM(B2:B5)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
@@ -2432,7 +2439,7 @@
       </c>
       <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
@@ -2444,24 +2451,24 @@
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="7">
         <f>E6/C6</f>
-        <v>0.77777777777777779</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="O6" s="7">
         <f>IF(B6,(E6+J6)/(C6+J6+L6),)</f>
-        <v>0.8</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="P6" s="7">
         <f>((E6-F6-G6-H6)+(2*F6)+(3*G6)+(4*H6))/C6</f>
-        <v>1.5555555555555556</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="Q6" s="7">
         <f>IF(P6,P6+O6,)</f>
-        <v>2.3555555555555556</v>
+        <v>1.9449760765550237</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1">
@@ -2521,65 +2528,65 @@
         <v>16</v>
       </c>
       <c r="B11" s="5">
-        <f>B2+'Spring 2014 04.16'!B2</f>
+        <f>B2+'Fall 2015 09.16'!B2</f>
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <f>C2+'Fall 2015 09.16'!C2</f>
         <v>10</v>
       </c>
-      <c r="C11" s="5">
-        <f>C2+'Spring 2014 04.16'!C2</f>
-        <v>8</v>
-      </c>
       <c r="D11" s="5">
-        <f>D2+'Spring 2014 04.16'!D2</f>
-        <v>8</v>
+        <f>D2+'Fall 2015 09.16'!D2</f>
+        <v>6</v>
       </c>
       <c r="E11" s="5">
-        <f>E2+'Spring 2014 04.16'!E2</f>
-        <v>6</v>
+        <f>E2+'Fall 2015 09.16'!E2</f>
+        <v>5</v>
       </c>
       <c r="F11" s="5">
-        <f>F2+'Spring 2014 04.16'!F2</f>
-        <v>2</v>
+        <f>F2+'Fall 2015 09.16'!F2</f>
+        <v>1</v>
       </c>
       <c r="G11" s="5">
-        <f>G2+'Spring 2014 04.16'!G2</f>
-        <v>2</v>
+        <f>G2+'Fall 2015 09.16'!G2</f>
+        <v>1</v>
       </c>
       <c r="H11" s="5">
-        <f>H2+'Spring 2014 04.16'!H2</f>
+        <f>H2+'Fall 2015 09.16'!H2</f>
         <v>0</v>
       </c>
       <c r="I11" s="5">
-        <f>I2+'Spring 2014 04.16'!I2</f>
+        <f>I2+'Fall 2015 09.16'!I2</f>
         <v>3</v>
       </c>
       <c r="J11" s="5">
-        <f>J2+'Spring 2014 04.16'!J2</f>
-        <v>2</v>
+        <f>J2+'Fall 2015 09.16'!J2</f>
+        <v>1</v>
       </c>
       <c r="K11" s="5">
-        <f>K2+'Spring 2014 04.16'!K2</f>
+        <f>K2+'Fall 2015 09.16'!K2</f>
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <f>L2+'Spring 2014 04.16'!L2</f>
+        <f>L2+'Fall 2015 09.16'!L2</f>
         <v>0</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="6">
         <f t="shared" ref="N11:N14" si="3">IF(C11,E11/C11,)</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O11" s="6">
         <f>IF(B11,(E11+J11)/(C11+J11+L11),)</f>
-        <v>0.8</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" ref="P11:P14" si="4">IF(C11,((E11-F11-G11-H11)+(2*F11)+(3*G11)+(4*H11))/C11,)</f>
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q11" s="6">
         <f>IF(P11,P11+O11,)</f>
-        <v>2.2999999999999998</v>
+        <v>1.3454545454545455</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1">
@@ -2587,47 +2594,47 @@
         <v>18</v>
       </c>
       <c r="B12" s="5">
-        <f>B3+'Spring 2014 04.16'!B3</f>
+        <f>B3+'Fall 2015 09.16'!B3</f>
         <v>10</v>
       </c>
       <c r="C12" s="5">
-        <f>C3+'Spring 2014 04.16'!C3</f>
+        <f>C3+'Fall 2015 09.16'!C3</f>
         <v>10</v>
       </c>
       <c r="D12" s="5">
-        <f>D3+'Spring 2014 04.16'!D3</f>
+        <f>D3+'Fall 2015 09.16'!D3</f>
         <v>8</v>
       </c>
       <c r="E12" s="5">
-        <f>E3+'Spring 2014 04.16'!E3</f>
+        <f>E3+'Fall 2015 09.16'!E3</f>
         <v>8</v>
       </c>
       <c r="F12" s="5">
-        <f>F3+'Spring 2014 04.16'!F3</f>
+        <f>F3+'Fall 2015 09.16'!F3</f>
         <v>6</v>
       </c>
       <c r="G12" s="5">
-        <f>G3+'Spring 2014 04.16'!G3</f>
+        <f>G3+'Fall 2015 09.16'!G3</f>
         <v>0</v>
       </c>
       <c r="H12" s="5">
-        <f>H3+'Spring 2014 04.16'!H3</f>
+        <f>H3+'Fall 2015 09.16'!H3</f>
         <v>0</v>
       </c>
       <c r="I12" s="5">
-        <f>I3+'Spring 2014 04.16'!I3</f>
+        <f>I3+'Fall 2015 09.16'!I3</f>
         <v>6</v>
       </c>
       <c r="J12" s="5">
-        <f>J3+'Spring 2014 04.16'!J3</f>
+        <f>J3+'Fall 2015 09.16'!J3</f>
         <v>0</v>
       </c>
       <c r="K12" s="5">
-        <f>K3+'Spring 2014 04.16'!K3</f>
+        <f>K3+'Fall 2015 09.16'!K3</f>
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <f>L3+'Spring 2014 04.16'!L3</f>
+        <f>L3+'Fall 2015 09.16'!L3</f>
         <v>0</v>
       </c>
       <c r="M12" s="5"/>
@@ -2653,65 +2660,65 @@
         <v>23</v>
       </c>
       <c r="B13" s="5">
-        <f>B4+'Spring 2014 04.16'!B4</f>
+        <f>B4+'Fall 2015 09.16'!B4</f>
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <f>C4+'Fall 2015 09.16'!C4</f>
         <v>10</v>
       </c>
-      <c r="C13" s="5">
-        <f>C4+'Spring 2014 04.16'!C4</f>
-        <v>8</v>
-      </c>
       <c r="D13" s="5">
-        <f>D4+'Spring 2014 04.16'!D4</f>
+        <f>D4+'Fall 2015 09.16'!D4</f>
         <v>6</v>
       </c>
       <c r="E13" s="5">
-        <f>E4+'Spring 2014 04.16'!E4</f>
+        <f>E4+'Fall 2015 09.16'!E4</f>
         <v>6</v>
       </c>
       <c r="F13" s="5">
-        <f>F4+'Spring 2014 04.16'!F4</f>
+        <f>F4+'Fall 2015 09.16'!F4</f>
         <v>0</v>
       </c>
       <c r="G13" s="5">
-        <f>G4+'Spring 2014 04.16'!G4</f>
+        <f>G4+'Fall 2015 09.16'!G4</f>
         <v>4</v>
       </c>
       <c r="H13" s="5">
-        <f>H4+'Spring 2014 04.16'!H4</f>
+        <f>H4+'Fall 2015 09.16'!H4</f>
         <v>0</v>
       </c>
       <c r="I13" s="5">
-        <f>I4+'Spring 2014 04.16'!I4</f>
+        <f>I4+'Fall 2015 09.16'!I4</f>
         <v>6</v>
       </c>
       <c r="J13" s="5">
-        <f>J4+'Spring 2014 04.16'!J4</f>
-        <v>2</v>
+        <f>J4+'Fall 2015 09.16'!J4</f>
+        <v>1</v>
       </c>
       <c r="K13" s="5">
-        <f>K4+'Spring 2014 04.16'!K4</f>
+        <f>K4+'Fall 2015 09.16'!K4</f>
         <v>0</v>
       </c>
       <c r="L13" s="5">
-        <f>L4+'Spring 2014 04.16'!L4</f>
+        <f>L4+'Fall 2015 09.16'!L4</f>
         <v>0</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="6">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="O13" s="6">
         <f>IF(B13,(E13+J13)/(C13+J13+L13),)</f>
-        <v>0.8</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="4"/>
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q13" s="6">
         <f>IF(P13,P13+O13,)</f>
-        <v>2.5499999999999998</v>
+        <v>2.0363636363636362</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1">
@@ -2719,65 +2726,65 @@
         <v>21</v>
       </c>
       <c r="B14" s="5">
-        <f>B5+'Spring 2014 04.16'!B5</f>
+        <f>B5+'Fall 2015 09.16'!B5</f>
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <f>C5+'Fall 2015 09.16'!C5</f>
+        <v>8</v>
+      </c>
+      <c r="D14" s="5">
+        <f>D5+'Fall 2015 09.16'!D5</f>
+        <v>6</v>
+      </c>
+      <c r="E14" s="5">
+        <f>E5+'Fall 2015 09.16'!E5</f>
+        <v>8</v>
+      </c>
+      <c r="F14" s="5">
+        <f>F5+'Fall 2015 09.16'!F5</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="5">
+        <f>G5+'Fall 2015 09.16'!G5</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="5">
+        <f>H5+'Fall 2015 09.16'!H5</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f>I5+'Fall 2015 09.16'!I5</f>
         <v>10</v>
       </c>
-      <c r="C14" s="5">
-        <f>C5+'Spring 2014 04.16'!C5</f>
-        <v>10</v>
-      </c>
-      <c r="D14" s="5">
-        <f>D5+'Spring 2014 04.16'!D5</f>
-        <v>6</v>
-      </c>
-      <c r="E14" s="5">
-        <f>E5+'Spring 2014 04.16'!E5</f>
-        <v>8</v>
-      </c>
-      <c r="F14" s="5">
-        <f>F5+'Spring 2014 04.16'!F5</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="5">
-        <f>G5+'Spring 2014 04.16'!G5</f>
-        <v>2</v>
-      </c>
-      <c r="H14" s="5">
-        <f>H5+'Spring 2014 04.16'!H5</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <f>I5+'Spring 2014 04.16'!I5</f>
-        <v>8</v>
-      </c>
       <c r="J14" s="5">
-        <f>J5+'Spring 2014 04.16'!J5</f>
+        <f>J5+'Fall 2015 09.16'!J5</f>
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <f>K5+'Spring 2014 04.16'!K5</f>
+        <f>K5+'Fall 2015 09.16'!K5</f>
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <f>L5+'Spring 2014 04.16'!L5</f>
-        <v>0</v>
+        <f>L5+'Fall 2015 09.16'!L5</f>
+        <v>3</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="6">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O14" s="6">
         <f>IF(B14,(E14+J14)/(C14+J14+L14),)</f>
-        <v>0.8</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="4"/>
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="Q14" s="6">
         <f>IF(P14,P14+O14,)</f>
-        <v>2.4000000000000004</v>
+        <v>2.7272727272727275</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1">
@@ -2786,27 +2793,27 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ref="B15:L15" si="5">SUM(B11:B14)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="5"/>
@@ -2814,11 +2821,11 @@
       </c>
       <c r="I15" s="2">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="5"/>
@@ -2826,24 +2833,24 @@
       </c>
       <c r="L15" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="7">
         <f>E15/C15</f>
-        <v>0.77777777777777779</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="O15" s="7">
         <f>IF(B15,(E15+J15)/(C15+J15+L15),)</f>
-        <v>0.8</v>
+        <v>0.67441860465116277</v>
       </c>
       <c r="P15" s="7">
         <f>((E15-F15-G15-H15)+(2*F15)+(3*G15)+(4*H15))/C15</f>
-        <v>1.5555555555555556</v>
+        <v>1.368421052631579</v>
       </c>
       <c r="Q15" s="7">
         <f>IF(P15,P15+O15,)</f>
-        <v>2.3555555555555556</v>
+        <v>2.0428396572827419</v>
       </c>
     </row>
   </sheetData>
@@ -2861,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2938,31 +2945,31 @@
         <v>16</v>
       </c>
       <c r="B2" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="5">
         <v>0</v>
@@ -2972,16 +2979,20 @@
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="6">
-        <v>0.75</v>
+        <f t="shared" ref="N2:N5" si="0">IF(C2,E2/C2,)</f>
+        <v>0.5</v>
       </c>
       <c r="O2" s="6">
-        <v>0.8</v>
+        <f>IF(B2,(E2+J2)/(C2+J2+L2),)</f>
+        <v>0.6</v>
       </c>
       <c r="P2" s="6">
-        <v>1.5</v>
+        <f t="shared" ref="P2:P5" si="1">IF(C2,((E2-F2-G2-H2)+(2*F2)+(3*G2)+(4*H2))/C2,)</f>
+        <v>0.5</v>
       </c>
       <c r="Q2" s="6">
-        <v>2.2999999999999998</v>
+        <f>IF(P2,P2+O2,)</f>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
@@ -2989,19 +3000,19 @@
         <v>18</v>
       </c>
       <c r="B3" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
@@ -3010,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" s="5">
         <v>0</v>
@@ -3023,15 +3034,19 @@
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="6">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="O3" s="6">
+        <f>IF(B3,(E3+J3)/(C3+J3+L3),)</f>
         <v>0.8</v>
       </c>
       <c r="P3" s="6">
+        <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
       <c r="Q3" s="6">
+        <f>IF(P3,P3+O3,)</f>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -3040,31 +3055,31 @@
         <v>23</v>
       </c>
       <c r="B4" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5">
         <v>0</v>
@@ -3074,16 +3089,20 @@
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="6">
-        <v>0.75</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
       <c r="O4" s="6">
-        <v>0.8</v>
+        <f>IF(B4,(E4+J4)/(C4+J4+L4),)</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P4" s="6">
-        <v>1.75</v>
+        <f t="shared" si="1"/>
+        <v>1.4</v>
       </c>
       <c r="Q4" s="6">
-        <v>2.5499999999999998</v>
+        <f>IF(P4,P4+O4,)</f>
+        <v>2.0666666666666664</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
@@ -3091,28 +3110,28 @@
         <v>21</v>
       </c>
       <c r="B5" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E5" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" s="5">
         <v>0</v>
@@ -3121,20 +3140,24 @@
         <v>0</v>
       </c>
       <c r="L5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="6">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="O5" s="6">
-        <v>0.8</v>
+        <f>IF(B5,(E5+J5)/(C5+J5+L5),)</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P5" s="6">
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="Q5" s="6">
-        <v>2.4000000000000004</v>
+        <f>IF(P5,P5+O5,)</f>
+        <v>2.2666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
@@ -3142,50 +3165,65 @@
         <v>28</v>
       </c>
       <c r="B6" s="2">
-        <v>40</v>
+        <f t="shared" ref="B6:L6" si="2">SUM(B2:B5)</f>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
-        <v>36</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="E6" s="2">
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G6" s="2">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>23</v>
-      </c>
       <c r="J6" s="2">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="K6" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="7">
-        <v>0.77777777777777779</v>
+        <f>E6/C6</f>
+        <v>0.68421052631578949</v>
       </c>
       <c r="O6" s="7">
-        <v>0.8</v>
+        <f>IF(B6,(E6+J6)/(C6+J6+L6),)</f>
+        <v>0.68181818181818177</v>
       </c>
       <c r="P6" s="7">
-        <v>1.5555555555555556</v>
+        <f>((E6-F6-G6-H6)+(2*F6)+(3*G6)+(4*H6))/C6</f>
+        <v>1.263157894736842</v>
       </c>
       <c r="Q6" s="7">
-        <v>2.3555555555555556</v>
+        <f>IF(P6,P6+O6,)</f>
+        <v>1.9449760765550237</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1">
@@ -3245,65 +3283,65 @@
         <v>16</v>
       </c>
       <c r="B11" s="5">
-        <f>B2+'f15'!B13</f>
-        <v>19</v>
+        <f>B2+'s14'!B11</f>
+        <v>15</v>
       </c>
       <c r="C11" s="5">
-        <f>C2+'f15'!C13</f>
-        <v>15</v>
+        <f>C2+'s14'!C11</f>
+        <v>12</v>
       </c>
       <c r="D11" s="5">
-        <f>D2+'f15'!D13</f>
-        <v>14</v>
+        <f>D2+'s14'!D11</f>
+        <v>10</v>
       </c>
       <c r="E11" s="5">
-        <f>E2+'f15'!E13</f>
-        <v>11</v>
+        <f>E2+'s14'!E11</f>
+        <v>8</v>
       </c>
       <c r="F11" s="5">
-        <f>F2+'f15'!F13</f>
-        <v>3</v>
+        <f>F2+'s14'!F11</f>
+        <v>2</v>
       </c>
       <c r="G11" s="5">
-        <f>G2+'f15'!G13</f>
-        <v>3</v>
+        <f>G2+'s14'!G11</f>
+        <v>1</v>
       </c>
       <c r="H11" s="5">
-        <f>H2+'f15'!H13</f>
+        <f>H2+'s14'!H11</f>
         <v>0</v>
       </c>
       <c r="I11" s="5">
-        <f>I2+'f15'!I13</f>
-        <v>6</v>
+        <f>I2+'s14'!I11</f>
+        <v>4</v>
       </c>
       <c r="J11" s="5">
-        <f>J2+'f15'!J13</f>
-        <v>4</v>
+        <f>J2+'s14'!J11</f>
+        <v>3</v>
       </c>
       <c r="K11" s="5">
-        <f>K2+'f15'!K13</f>
+        <f>K2+'s14'!K11</f>
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <f>L2+'f15'!L13</f>
+        <f>L2+'s14'!L11</f>
         <v>0</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="6">
-        <f t="shared" ref="N11:N14" si="0">IF(C11,E11/C11,)</f>
-        <v>0.73333333333333328</v>
+        <f t="shared" ref="N11:N14" si="3">IF(C11,E11/C11,)</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="O11" s="6">
         <f>IF(B11,(E11+J11)/(C11+J11+L11),)</f>
-        <v>0.78947368421052633</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" ref="P11:P14" si="1">IF(C11,((E11-F11-G11-H11)+(2*F11)+(3*G11)+(4*H11))/C11,)</f>
-        <v>1.3333333333333333</v>
+        <f t="shared" ref="P11:P14" si="4">IF(C11,((E11-F11-G11-H11)+(2*F11)+(3*G11)+(4*H11))/C11,)</f>
+        <v>1</v>
       </c>
       <c r="Q11" s="6">
         <f>IF(P11,P11+O11,)</f>
-        <v>2.1228070175438596</v>
+        <v>1.7333333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1">
@@ -3311,52 +3349,52 @@
         <v>18</v>
       </c>
       <c r="B12" s="5">
-        <f>B3+'f15'!B14</f>
-        <v>20</v>
+        <f>B3+'s14'!B12</f>
+        <v>15</v>
       </c>
       <c r="C12" s="5">
-        <f>C3+'f15'!C14</f>
-        <v>20</v>
+        <f>C3+'s14'!C12</f>
+        <v>15</v>
       </c>
       <c r="D12" s="5">
-        <f>D3+'f15'!D14</f>
-        <v>16</v>
+        <f>D3+'s14'!D12</f>
+        <v>12</v>
       </c>
       <c r="E12" s="5">
-        <f>E3+'f15'!E14</f>
-        <v>16</v>
+        <f>E3+'s14'!E12</f>
+        <v>12</v>
       </c>
       <c r="F12" s="5">
-        <f>F3+'f15'!F14</f>
-        <v>12</v>
+        <f>F3+'s14'!F12</f>
+        <v>9</v>
       </c>
       <c r="G12" s="5">
-        <f>G3+'f15'!G14</f>
+        <f>G3+'s14'!G12</f>
         <v>0</v>
       </c>
       <c r="H12" s="5">
-        <f>H3+'f15'!H14</f>
+        <f>H3+'s14'!H12</f>
         <v>0</v>
       </c>
       <c r="I12" s="5">
-        <f>I3+'f15'!I14</f>
-        <v>12</v>
+        <f>I3+'s14'!I12</f>
+        <v>9</v>
       </c>
       <c r="J12" s="5">
-        <f>J3+'f15'!J14</f>
+        <f>J3+'s14'!J12</f>
         <v>0</v>
       </c>
       <c r="K12" s="5">
-        <f>K3+'f15'!K14</f>
+        <f>K3+'s14'!K12</f>
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <f>L3+'f15'!L14</f>
+        <f>L3+'s14'!L12</f>
         <v>0</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="O12" s="6">
@@ -3364,7 +3402,7 @@
         <v>0.8</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4</v>
       </c>
       <c r="Q12" s="6">
@@ -3377,65 +3415,65 @@
         <v>23</v>
       </c>
       <c r="B13" s="5">
-        <f>B4+'f15'!B15</f>
-        <v>20</v>
+        <f>B4+'s14'!B13</f>
+        <v>15</v>
       </c>
       <c r="C13" s="5">
-        <f>C4+'f15'!C15</f>
-        <v>16</v>
+        <f>C4+'s14'!C13</f>
+        <v>13</v>
       </c>
       <c r="D13" s="5">
-        <f>D4+'f15'!D15</f>
-        <v>12</v>
+        <f>D4+'s14'!D13</f>
+        <v>9</v>
       </c>
       <c r="E13" s="5">
-        <f>E4+'f15'!E15</f>
-        <v>12</v>
+        <f>E4+'s14'!E13</f>
+        <v>9</v>
       </c>
       <c r="F13" s="5">
-        <f>F4+'f15'!F15</f>
-        <v>0</v>
+        <f>F4+'s14'!F13</f>
+        <v>1</v>
       </c>
       <c r="G13" s="5">
-        <f>G4+'f15'!G15</f>
-        <v>8</v>
+        <f>G4+'s14'!G13</f>
+        <v>5</v>
       </c>
       <c r="H13" s="5">
-        <f>H4+'f15'!H15</f>
+        <f>H4+'s14'!H13</f>
         <v>0</v>
       </c>
       <c r="I13" s="5">
-        <f>I4+'f15'!I15</f>
-        <v>12</v>
+        <f>I4+'s14'!I13</f>
+        <v>9</v>
       </c>
       <c r="J13" s="5">
-        <f>J4+'f15'!J15</f>
-        <v>4</v>
+        <f>J4+'s14'!J13</f>
+        <v>2</v>
       </c>
       <c r="K13" s="5">
-        <f>K4+'f15'!K15</f>
+        <f>K4+'s14'!K13</f>
         <v>0</v>
       </c>
       <c r="L13" s="5">
-        <f>L4+'f15'!L15</f>
+        <f>L4+'s14'!L13</f>
         <v>0</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="6">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
+        <f t="shared" si="3"/>
+        <v>0.69230769230769229</v>
       </c>
       <c r="O13" s="6">
         <f>IF(B13,(E13+J13)/(C13+J13+L13),)</f>
-        <v>0.8</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="1"/>
-        <v>1.75</v>
+        <f t="shared" si="4"/>
+        <v>1.5384615384615385</v>
       </c>
       <c r="Q13" s="6">
         <f>IF(P13,P13+O13,)</f>
-        <v>2.5499999999999998</v>
+        <v>2.2717948717948717</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1">
@@ -3443,65 +3481,65 @@
         <v>21</v>
       </c>
       <c r="B14" s="5">
-        <f>B5+'f15'!B16</f>
-        <v>20</v>
+        <f>B5+'s14'!B14</f>
+        <v>16</v>
       </c>
       <c r="C14" s="5">
-        <f>C5+'f15'!C16</f>
-        <v>20</v>
+        <f>C5+'s14'!C14</f>
+        <v>15</v>
       </c>
       <c r="D14" s="5">
-        <f>D5+'f15'!D16</f>
-        <v>12</v>
+        <f>D5+'s14'!D14</f>
+        <v>9</v>
       </c>
       <c r="E14" s="5">
-        <f>E5+'f15'!E16</f>
-        <v>16</v>
+        <f>E5+'s14'!E14</f>
+        <v>11</v>
       </c>
       <c r="F14" s="5">
-        <f>F5+'f15'!F16</f>
-        <v>8</v>
+        <f>F5+'s14'!F14</f>
+        <v>6</v>
       </c>
       <c r="G14" s="5">
-        <f>G5+'f15'!G16</f>
-        <v>4</v>
+        <f>G5+'s14'!G14</f>
+        <v>3</v>
       </c>
       <c r="H14" s="5">
-        <f>H5+'f15'!H16</f>
+        <f>H5+'s14'!H14</f>
         <v>0</v>
       </c>
       <c r="I14" s="5">
-        <f>I5+'f15'!I16</f>
-        <v>18</v>
+        <f>I5+'s14'!I14</f>
+        <v>13</v>
       </c>
       <c r="J14" s="5">
-        <f>J5+'f15'!J16</f>
+        <f>J5+'s14'!J14</f>
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <f>K5+'f15'!K16</f>
+        <f>K5+'s14'!K14</f>
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <f>L5+'f15'!L16</f>
-        <v>0</v>
+        <f>L5+'s14'!L14</f>
+        <v>1</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
+        <f t="shared" si="3"/>
+        <v>0.73333333333333328</v>
       </c>
       <c r="O14" s="6">
         <f>IF(B14,(E14+J14)/(C14+J14+L14),)</f>
-        <v>0.8</v>
+        <v>0.6875</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="1"/>
-        <v>1.6</v>
+        <f t="shared" si="4"/>
+        <v>1.5333333333333334</v>
       </c>
       <c r="Q14" s="6">
         <f>IF(P14,P14+O14,)</f>
-        <v>2.4000000000000004</v>
+        <v>2.2208333333333332</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1">
@@ -3509,65 +3547,65 @@
         <v>28</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" ref="B15:L15" si="2">SUM(B11:B14)</f>
-        <v>79</v>
+        <f t="shared" ref="B15:L15" si="5">SUM(B11:B14)</f>
+        <v>61</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="2"/>
-        <v>71</v>
+        <f t="shared" si="5"/>
+        <v>55</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="2"/>
-        <v>54</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="2"/>
-        <v>55</v>
+        <f t="shared" si="5"/>
+        <v>40</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="2"/>
-        <v>48</v>
+        <f t="shared" si="5"/>
+        <v>35</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="7">
         <f>E15/C15</f>
-        <v>0.77464788732394363</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="O15" s="7">
         <f>IF(B15,(E15+J15)/(C15+J15+L15),)</f>
-        <v>0.79746835443037978</v>
+        <v>0.73770491803278693</v>
       </c>
       <c r="P15" s="7">
         <f>((E15-F15-G15-H15)+(2*F15)+(3*G15)+(4*H15))/C15</f>
-        <v>1.5211267605633803</v>
+        <v>1.3818181818181818</v>
       </c>
       <c r="Q15" s="7">
         <f>IF(P15,P15+O15,)</f>
-        <v>2.31859511499376</v>
+        <v>2.1195230998509689</v>
       </c>
     </row>
   </sheetData>
@@ -3583,10 +3621,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3668,22 +3706,22 @@
         <v>4</v>
       </c>
       <c r="D2" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="5">
         <v>1</v>
@@ -3697,19 +3735,19 @@
       <c r="M2" s="5"/>
       <c r="N2" s="6">
         <f t="shared" ref="N2:N5" si="0">IF(C2,E2/C2,)</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O2" s="6">
         <f>IF(B2,(E2+J2)/(C2+J2+L2),)</f>
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="P2" s="6">
         <f t="shared" ref="P2:P5" si="1">IF(C2,((E2-F2-G2-H2)+(2*F2)+(3*G2)+(4*H2))/C2,)</f>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" s="6">
         <f>IF(P2,P2+O2,)</f>
-        <v>2.2999999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
@@ -3772,10 +3810,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="5">
         <v>3</v>
@@ -3807,19 +3845,19 @@
       <c r="M4" s="5"/>
       <c r="N4" s="6">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="O4" s="6">
         <f>IF(B4,(E4+J4)/(C4+J4+L4),)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P4" s="6">
         <f t="shared" si="1"/>
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" s="6">
         <f>IF(P4,P4+O4,)</f>
-        <v>2.5499999999999998</v>
+        <v>2.0666666666666664</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
@@ -3827,7 +3865,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
         <v>5</v>
@@ -3848,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="5">
         <v>0</v>
@@ -3857,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="6">
@@ -3866,7 +3904,7 @@
       </c>
       <c r="O5" s="6">
         <f>IF(B5,(E5+J5)/(C5+J5+L5),)</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="1"/>
@@ -3874,7 +3912,7 @@
       </c>
       <c r="Q5" s="6">
         <f>IF(P5,P5+O5,)</f>
-        <v>2.4000000000000004</v>
+        <v>2.2666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
@@ -3883,27 +3921,27 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ref="B6:L6" si="2">SUM(B2:B5)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
@@ -3923,31 +3961,407 @@
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="7">
         <f>E6/C6</f>
-        <v>0.77777777777777779</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="O6" s="7">
         <f>IF(B6,(E6+J6)/(C6+J6+L6),)</f>
-        <v>0.8</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="P6" s="7">
         <f>((E6-F6-G6-H6)+(2*F6)+(3*G6)+(4*H6))/C6</f>
-        <v>1.5555555555555556</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="Q6" s="7">
         <f>IF(P6,P6+O6,)</f>
-        <v>2.3555555555555556</v>
+        <v>1.9449760765550237</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1">
-      <c r="N10" s="4"/>
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="4"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1">
-      <c r="G11" s="4"/>
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
+        <f>'s14'!B11+'f15'!B11</f>
+        <v>21</v>
+      </c>
+      <c r="C11" s="5">
+        <f>'s14'!C11+'f15'!C11</f>
+        <v>18</v>
+      </c>
+      <c r="D11" s="5">
+        <f>'s14'!D11+'f15'!D11</f>
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <f>'s14'!E11+'f15'!E11</f>
+        <v>11</v>
+      </c>
+      <c r="F11" s="5">
+        <f>'s14'!F11+'f15'!F11</f>
+        <v>3</v>
+      </c>
+      <c r="G11" s="5">
+        <f>'s14'!G11+'f15'!G11</f>
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <f>'s14'!H11+'f15'!H11</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <f>'s14'!I11+'f15'!I11</f>
+        <v>6</v>
+      </c>
+      <c r="J11" s="5">
+        <f>'s14'!J11+'f15'!J11</f>
+        <v>3</v>
+      </c>
+      <c r="K11" s="5">
+        <f>'s14'!K11+'f15'!K11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <f>'s14'!L11+'f15'!L11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6">
+        <f t="shared" ref="N11:N14" si="3">IF(C11,E11/C11,)</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="O11" s="6">
+        <f>IF(B11,(E11+J11)/(C11+J11+L11),)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" ref="P11:P14" si="4">IF(C11,((E11-F11-G11-H11)+(2*F11)+(3*G11)+(4*H11))/C11,)</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6">
+        <f>IF(P11,P11+O11,)</f>
+        <v>1.6666666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5">
+        <f>'s14'!B12+'f15'!B12</f>
+        <v>20</v>
+      </c>
+      <c r="C12" s="5">
+        <f>'s14'!C12+'f15'!C12</f>
+        <v>20</v>
+      </c>
+      <c r="D12" s="5">
+        <f>'s14'!D12+'f15'!D12</f>
+        <v>16</v>
+      </c>
+      <c r="E12" s="5">
+        <f>'s14'!E12+'f15'!E12</f>
+        <v>16</v>
+      </c>
+      <c r="F12" s="5">
+        <f>'s14'!F12+'f15'!F12</f>
+        <v>12</v>
+      </c>
+      <c r="G12" s="5">
+        <f>'s14'!G12+'f15'!G12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <f>'s14'!H12+'f15'!H12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <f>'s14'!I12+'f15'!I12</f>
+        <v>12</v>
+      </c>
+      <c r="J12" s="5">
+        <f>'s14'!J12+'f15'!J12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <f>'s14'!K12+'f15'!K12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <f>'s14'!L12+'f15'!L12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="O12" s="6">
+        <f>IF(B12,(E12+J12)/(C12+J12+L12),)</f>
+        <v>0.8</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q12" s="6">
+        <f>IF(P12,P12+O12,)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5">
+        <f>'s14'!B13+'f15'!B13</f>
+        <v>20</v>
+      </c>
+      <c r="C13" s="5">
+        <f>'s14'!C13+'f15'!C13</f>
+        <v>18</v>
+      </c>
+      <c r="D13" s="5">
+        <f>'s14'!D13+'f15'!D13</f>
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <f>'s14'!E13+'f15'!E13</f>
+        <v>12</v>
+      </c>
+      <c r="F13" s="5">
+        <f>'s14'!F13+'f15'!F13</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <f>'s14'!G13+'f15'!G13</f>
+        <v>7</v>
+      </c>
+      <c r="H13" s="5">
+        <f>'s14'!H13+'f15'!H13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <f>'s14'!I13+'f15'!I13</f>
+        <v>12</v>
+      </c>
+      <c r="J13" s="5">
+        <f>'s14'!J13+'f15'!J13</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="5">
+        <f>'s14'!K13+'f15'!K13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <f>'s14'!L13+'f15'!L13</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O13" s="6">
+        <f>IF(B13,(E13+J13)/(C13+J13+L13),)</f>
+        <v>0.7</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q13" s="6">
+        <f>IF(P13,P13+O13,)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5">
+        <f>'s14'!B14+'f15'!B14</f>
+        <v>21</v>
+      </c>
+      <c r="C14" s="5">
+        <f>'s14'!C14+'f15'!C14</f>
+        <v>18</v>
+      </c>
+      <c r="D14" s="5">
+        <f>'s14'!D14+'f15'!D14</f>
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <f>'s14'!E14+'f15'!E14</f>
+        <v>15</v>
+      </c>
+      <c r="F14" s="5">
+        <f>'s14'!F14+'f15'!F14</f>
+        <v>8</v>
+      </c>
+      <c r="G14" s="5">
+        <f>'s14'!G14+'f15'!G14</f>
+        <v>4</v>
+      </c>
+      <c r="H14" s="5">
+        <f>'s14'!H14+'f15'!H14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f>'s14'!I14+'f15'!I14</f>
+        <v>18</v>
+      </c>
+      <c r="J14" s="5">
+        <f>'s14'!J14+'f15'!J14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <f>'s14'!K14+'f15'!K14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <f>'s14'!L14+'f15'!L14</f>
+        <v>3</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="O14" s="6">
+        <f>IF(B14,(E14+J14)/(C14+J14+L14),)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="4"/>
+        <v>1.7222222222222223</v>
+      </c>
+      <c r="Q14" s="6">
+        <f>IF(P14,P14+O14,)</f>
+        <v>2.4365079365079367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" ref="B15:L15" si="5">SUM(B11:B14)</f>
+        <v>82</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="7">
+        <f>E15/C15</f>
+        <v>0.72972972972972971</v>
+      </c>
+      <c r="O15" s="7">
+        <f>IF(B15,(E15+J15)/(C15+J15+L15),)</f>
+        <v>0.71951219512195119</v>
+      </c>
+      <c r="P15" s="7">
+        <f>((E15-F15-G15-H15)+(2*F15)+(3*G15)+(4*H15))/C15</f>
+        <v>1.4054054054054055</v>
+      </c>
+      <c r="Q15" s="7">
+        <f>IF(P15,P15+O15,)</f>
+        <v>2.1249176005273567</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3965,7 +4379,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -4056,13 +4470,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="5">
         <v>1</v>
@@ -4084,11 +4498,11 @@
       </c>
       <c r="P2" s="6">
         <f t="shared" ref="P2:P5" si="1">IF(C2,((E2-F2-G2-H2)+(2*F2)+(3*G2)+(4*H2))/C2,)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="6">
         <f>IF(P2,P2+O2,)</f>
-        <v>2.2999999999999998</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
@@ -4282,7 +4696,7 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
@@ -4290,7 +4704,7 @@
       </c>
       <c r="I6" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="2"/>
@@ -4315,11 +4729,11 @@
       </c>
       <c r="P6" s="7">
         <f>((E6-F6-G6-H6)+(2*F6)+(3*G6)+(4*H6))/C6</f>
-        <v>1.5555555555555556</v>
+        <v>1.4444444444444444</v>
       </c>
       <c r="Q6" s="7">
         <f>IF(P6,P6+O6,)</f>
-        <v>2.3555555555555556</v>
+        <v>2.2444444444444445</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1">
@@ -4340,6 +4754,385 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="12" width="7.5" customWidth="1"/>
+    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="14" max="17" width="8.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="6">
+        <f t="shared" ref="N2:N5" si="0">IF(C2,E2/C2,)</f>
+        <v>0.75</v>
+      </c>
+      <c r="O2" s="6">
+        <f>IF(B2,(E2+J2)/(C2+J2+L2),)</f>
+        <v>0.8</v>
+      </c>
+      <c r="P2" s="6">
+        <f t="shared" ref="P2:P5" si="1">IF(C2,((E2-F2-G2-H2)+(2*F2)+(3*G2)+(4*H2))/C2,)</f>
+        <v>1.5</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>IF(P2,P2+O2,)</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="O3" s="6">
+        <f>IF(B3,(E3+J3)/(C3+J3+L3),)</f>
+        <v>0.8</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>IF(P3,P3+O3,)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="O4" s="6">
+        <f>IF(B4,(E4+J4)/(C4+J4+L4),)</f>
+        <v>0.75</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>IF(P4,P4+O4,)</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="O5" s="6">
+        <f>IF(B5,(E5+J5)/(C5+J5+L5),)</f>
+        <v>0.6</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>IF(P5,P5+O5,)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:L6" si="2">SUM(B2:B5)</f>
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="7">
+        <f>E6/C6</f>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="O6" s="7">
+        <f>IF(B6,(E6+J6)/(C6+J6+L6),)</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="P6" s="7">
+        <f>((E6-F6-G6-H6)+(2*F6)+(3*G6)+(4*H6))/C6</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>IF(P6,P6+O6,)</f>
+        <v>2.1812865497076022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1">
+      <c r="G11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>

--- a/test3.xlsx
+++ b/test3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Fall 2015 09.16" sheetId="4" r:id="rId1"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="2"/>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="K13" s="5">
         <f>K4+'Fall 2015 09.16'!K4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="5">
         <f>L4+'Fall 2015 09.16'!L4</f>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="5"/>
@@ -3623,7 +3623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="K13" s="5">
         <f>'s14'!K13+'f15'!K13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="5">
         <f>'s14'!L13+'f15'!L13</f>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="5"/>
